--- a/ответы/submission_GigaTrash.xlsx
+++ b/ответы/submission_GigaTrash.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Вопрос</t>
   </si>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve"> D-1C1-1.05.01 Планирование работы ТС.pdf</t>
-  </si>
-  <si>
-    <t>Информация о генерации платежного поручения не представлена в предоставленных страницах документа. Пожалуйста, уточните или переформулируйте ваш вопрос, возможно, он касается другого раздела инструкции. 
-Однако, судя по контексту, в инструкции подробно описан процесс формирования заявки на платеж, включая детали, такие как назначение платежа, курс валюты, сумма к оплате и другие (Инструкция D-1C1-1.01.07, Страницы 88, 90, 92). Возможно, процесс генерации платежного поручения следует сразу после этих разделов.</t>
   </si>
   <si>
     <t>Инструкция D-1C1-1.01.07</t>
@@ -161,9 +157,6 @@
 Пожалуйста, проверьте другие разделы документа "Инструкция D-1C1-1.10.47 Учет резервов по сомнительным долгам.pdf" или переформулируйте вопрос.</t>
   </si>
   <si>
-    <t>Уведомления о закрытии договоров обеспечения приходят в результате операций по оплате или по истечении контрольной даты обязательств, как указано в Инструкции D-1C1-1.27.10 "Учет договоров обеспечения и платежей по обеспечению" на странице 18. Это автоматическая проверка системы на корректность закрытия обеспечения.</t>
-  </si>
-  <si>
     <t>Инструкции D-1C1-1.27.10 "Учет договоров обеспечения и платежей по обеспечению"</t>
   </si>
   <si>
@@ -189,6 +182,31 @@
   </si>
   <si>
     <t>Извините, но в предоставленном контексте нет информации, связанной с активацией кнопки "Аналитика ЕПС" в карточке номенклатуры. Пожалуйста, уточните или переформулируйте ваш вопрос, чтобы я мог вам лучше помочь.</t>
+  </si>
+  <si>
+    <t>Уведомления о закрытии договоров обеспечения приходят в результате оперативной проверки данных по обязательствам. Это происходит после отражения хозяйственной операции в учете для контроля корректности введенных данных ("Инструкция D-1C1-1.27.10 Учет договоров обеспечения и платежей по обеспечению", стр. 18, раздел "Оперативная проверка введенных данных по обязательствам"). Для контроля используются отчеты "Сводный отчет договоров обеспечения" или "Оборотно-сальдовая ведомость по счету".</t>
+  </si>
+  <si>
+    <t>"Оперативная проверка введенных данных по обязательствам"</t>
+  </si>
+  <si>
+    <t>Планирование работы ТС</t>
+  </si>
+  <si>
+    <t>К сожалению, в предоставленном контексте нет информации о том, как сгенерировать платежное поручение. Пожалуйста, уточните или переформулируйте ваш вопрос, возможно, вам потребуется информация из другого раздела инструкции. 
+Но, в общих чертах, процесс обычно включает в себя следующие шаги: 
+1. Формирование заявки на платеж (см. Инструкция D-1C1-1.01.07, стр. 58-92).
+2. Утверждение заявки.
+3. Исполнение заявки, включая выбор банковского счета для оплаты (см. Инструкция D-1C1-1.01.07, стр. 88).
+4. Установка параметров платежа, включая курс валюты и назначение платежа (см. Инструкция D-1C1-1.01.07, стр. 92).
+5. Корректировка суммы к оплате, если это необходимо (см. Инструкция D-1C1-1.01.07, стр. 90).
+Пожалуйста, уточните, если вам нужна более подробная информация.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Предприятие / Бухгалтер: Проверка сделки в ЕОСДО"</t>
+  </si>
+  <si>
+    <t>Возврат ДС от подотчетника</t>
   </si>
 </sst>
 </file>
@@ -254,9 +272,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -552,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,273 +584,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
